--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/148.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/148.xlsx
@@ -479,13 +479,13 @@
         <v>0.02767036518109075</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.094580184976212</v>
+        <v>-2.242693810271486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3787020316390599</v>
+        <v>0.4563483948928228</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09805734206906937</v>
+        <v>-0.1139029925632034</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05719736844108588</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.169950516580574</v>
+        <v>-2.327575152416307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.387727457280598</v>
+        <v>0.4665401687032447</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07955789533642239</v>
+        <v>-0.09325028767261707</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07729408257834967</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.334725134274816</v>
+        <v>-2.505166220805739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3827708710676221</v>
+        <v>0.4685753754270865</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03428280933132941</v>
+        <v>-0.03955892142592931</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07282464498356957</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.515464240906849</v>
+        <v>-2.700517733950368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4484420968465294</v>
+        <v>0.5519952408177804</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09031316799226999</v>
+        <v>-0.09429228833091813</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04462824512663602</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.557412637499073</v>
+        <v>-2.760645264384054</v>
       </c>
       <c r="F6" t="n">
-        <v>0.514402942143756</v>
+        <v>0.6225191675476577</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1369009859445277</v>
+        <v>-0.1438707426136472</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.002519264211615354</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.60041720092169</v>
+        <v>-2.837933538287721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5977472546166275</v>
+        <v>0.6994430560247437</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1476452404665262</v>
+        <v>-0.1529323706949753</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03476794199661432</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.435485968324879</v>
+        <v>-2.673324192601216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7483824585442246</v>
+        <v>0.8573675425030842</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1901705150667069</v>
+        <v>-0.1974818338851486</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04509058656401115</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.995887612051538</v>
+        <v>-2.198321424232459</v>
       </c>
       <c r="F9" t="n">
-        <v>0.803778487499281</v>
+        <v>0.91321059288859</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2016687247478084</v>
+        <v>-0.2080025776919224</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.002201015025828863</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.389030835910543</v>
+        <v>-1.528740773117192</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7238010019268718</v>
+        <v>0.7992012398945386</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2277187412053348</v>
+        <v>-0.2412112331131243</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1115152192378196</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6450667631799696</v>
+        <v>-0.7256612642479288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6075596898188159</v>
+        <v>0.6428177181359513</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2222206924146315</v>
+        <v>-0.2279139195763761</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2958111382360953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1907011877909057</v>
+        <v>0.1667635049941648</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4263208321157695</v>
+        <v>0.4155230609436468</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1104307063816141</v>
+        <v>-0.1149969358525074</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.537878070427052</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9898637500768123</v>
+        <v>1.010596729942585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08865910217610341</v>
+        <v>0.03635444677528156</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04558426662226835</v>
+        <v>-0.05135304670183537</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.8121072338313305</v>
       </c>
       <c r="E14" t="n">
-        <v>1.761325149846948</v>
+        <v>1.81841010131916</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3017621746904405</v>
+        <v>-0.3956004726450236</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1109314727425082</v>
+        <v>0.1218472953487284</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.090707118075639</v>
       </c>
       <c r="E15" t="n">
-        <v>2.512118104535285</v>
+        <v>2.605062359628969</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7983337270783815</v>
+        <v>-0.9580958808808406</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2762003324408377</v>
+        <v>0.3086739209323923</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.353329862839531</v>
       </c>
       <c r="E16" t="n">
-        <v>3.094319445160225</v>
+        <v>3.198595063908153</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.291931957346185</v>
+        <v>-1.50667696008436</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4691593365210891</v>
+        <v>0.5194838758673147</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.592468256635234</v>
       </c>
       <c r="E17" t="n">
-        <v>3.831758421623447</v>
+        <v>3.939200966843432</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.882658185532091</v>
+        <v>-2.1493355881489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6812552650781142</v>
+        <v>0.7445103715058249</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.80119355677929</v>
       </c>
       <c r="E18" t="n">
-        <v>4.337741034337644</v>
+        <v>4.46044369493864</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.354497175467034</v>
+        <v>-2.662797939727518</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9243074276937598</v>
+        <v>1.017785275269565</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.97288749320683</v>
       </c>
       <c r="E19" t="n">
-        <v>4.825369010078355</v>
+        <v>4.925942535852983</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.838184594337569</v>
+        <v>-3.163472172955129</v>
       </c>
       <c r="G19" t="n">
-        <v>1.21057900734208</v>
+        <v>1.32925847506903</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.109090264929834</v>
       </c>
       <c r="E20" t="n">
-        <v>5.148900770366104</v>
+        <v>5.215171697430228</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.290025671336386</v>
+        <v>-3.642630351804121</v>
       </c>
       <c r="G20" t="n">
-        <v>1.419605598612569</v>
+        <v>1.540455638707793</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.213714887267617</v>
       </c>
       <c r="E21" t="n">
-        <v>5.37325515983982</v>
+        <v>5.408343194091855</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.686249569693605</v>
+        <v>-4.03441315521059</v>
       </c>
       <c r="G21" t="n">
-        <v>1.633788676524438</v>
+        <v>1.768011583074233</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.293320672796467</v>
       </c>
       <c r="E22" t="n">
-        <v>5.549471322526795</v>
+        <v>5.564478020829276</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.004130601335886</v>
+        <v>-4.345903669220389</v>
       </c>
       <c r="G22" t="n">
-        <v>1.830482827979536</v>
+        <v>1.969561583518544</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.347925320357786</v>
       </c>
       <c r="E23" t="n">
-        <v>5.81850424475863</v>
+        <v>5.820448158373437</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.19764995622332</v>
+        <v>-4.51760003600055</v>
       </c>
       <c r="G23" t="n">
-        <v>1.912182290470648</v>
+        <v>2.049628788180867</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.377819606411717</v>
       </c>
       <c r="E24" t="n">
-        <v>5.872160982584649</v>
+        <v>5.860170104918581</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.449607919027285</v>
+        <v>-4.768866217400704</v>
       </c>
       <c r="G24" t="n">
-        <v>2.071388028513728</v>
+        <v>2.224971370255521</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.386740962480649</v>
       </c>
       <c r="E25" t="n">
-        <v>5.85117773367859</v>
+        <v>5.816853098700386</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.478473068683257</v>
+        <v>-4.743559924977992</v>
       </c>
       <c r="G25" t="n">
-        <v>2.124591448832812</v>
+        <v>2.273271721011754</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.379819932284628</v>
       </c>
       <c r="E26" t="n">
-        <v>5.866625157335035</v>
+        <v>5.82135951544467</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.515643530232774</v>
+        <v>-4.740651137641828</v>
       </c>
       <c r="G26" t="n">
-        <v>2.164119791026037</v>
+        <v>2.301061028598318</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.360039989846918</v>
       </c>
       <c r="E27" t="n">
-        <v>5.832775876131464</v>
+        <v>5.804815000460678</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.51401835549003</v>
+        <v>-4.706693249118887</v>
       </c>
       <c r="G27" t="n">
-        <v>2.214820520942253</v>
+        <v>2.353323185482864</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.325845510700403</v>
       </c>
       <c r="E28" t="n">
-        <v>5.623113381135969</v>
+        <v>5.582818491630672</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.442100634828241</v>
+        <v>-4.603295146031084</v>
       </c>
       <c r="G28" t="n">
-        <v>2.184356954868599</v>
+        <v>2.319763523797612</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.277208175862836</v>
       </c>
       <c r="E29" t="n">
-        <v>5.422504644126197</v>
+        <v>5.352473385381287</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.247056055412266</v>
+        <v>-4.350005563050499</v>
       </c>
       <c r="G29" t="n">
-        <v>2.160782870488879</v>
+        <v>2.288645165769498</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.21509897039511</v>
       </c>
       <c r="E30" t="n">
-        <v>5.180599941449979</v>
+        <v>5.078236755934432</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.122786458776017</v>
+        <v>-4.210578162276123</v>
       </c>
       <c r="G30" t="n">
-        <v>2.043660107672895</v>
+        <v>2.13109844388027</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.144110456446874</v>
       </c>
       <c r="E31" t="n">
-        <v>4.94024249957</v>
+        <v>4.798458005161477</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.975295358043218</v>
+        <v>-4.046144319721644</v>
       </c>
       <c r="G31" t="n">
-        <v>1.927132324084762</v>
+        <v>2.005845872302767</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.06784037094631</v>
       </c>
       <c r="E32" t="n">
-        <v>4.690422054732761</v>
+        <v>4.523450106345185</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.832593210486976</v>
+        <v>-3.871837442228806</v>
       </c>
       <c r="G32" t="n">
-        <v>1.804077083200596</v>
+        <v>1.870574669018186</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.990587126027096</v>
       </c>
       <c r="E33" t="n">
-        <v>4.422043924455388</v>
+        <v>4.255550477880687</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.692999750695303</v>
+        <v>-3.73861797286884</v>
       </c>
       <c r="G33" t="n">
-        <v>1.691438700861197</v>
+        <v>1.753514866967054</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.911382648572983</v>
       </c>
       <c r="E34" t="n">
-        <v>4.072427519289443</v>
+        <v>3.902915104040087</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.568567243079999</v>
+        <v>-3.611345147749148</v>
       </c>
       <c r="G34" t="n">
-        <v>1.54750724437122</v>
+        <v>1.589650032324925</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.827331409196676</v>
       </c>
       <c r="E35" t="n">
-        <v>3.765526845037356</v>
+        <v>3.578549113618048</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.401082951468438</v>
+        <v>-3.424463431496239</v>
       </c>
       <c r="G35" t="n">
-        <v>1.405102586428904</v>
+        <v>1.441988150517464</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.73571186203234</v>
       </c>
       <c r="E36" t="n">
-        <v>3.473067796223203</v>
+        <v>3.294657450881134</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.308258321827973</v>
+        <v>-3.331706484677989</v>
       </c>
       <c r="G36" t="n">
-        <v>1.300439758977136</v>
+        <v>1.319956022062143</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.636148262440978</v>
       </c>
       <c r="E37" t="n">
-        <v>3.186874917530949</v>
+        <v>3.000293838930207</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.205315897275787</v>
+        <v>-3.226875237180242</v>
       </c>
       <c r="G37" t="n">
-        <v>1.188301914718311</v>
+        <v>1.219034638061707</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.532472023271597</v>
       </c>
       <c r="E38" t="n">
-        <v>2.885850056658677</v>
+        <v>2.700550229622675</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.070184781693001</v>
+        <v>-3.086183899051462</v>
       </c>
       <c r="G38" t="n">
-        <v>1.105105560042842</v>
+        <v>1.126878966547795</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.427681781846594</v>
       </c>
       <c r="E39" t="n">
-        <v>2.534086689411278</v>
+        <v>2.341335455855039</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.922662200577776</v>
+        <v>-2.92449357182541</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9846269884602448</v>
+        <v>1.01371328780276</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.324435138000585</v>
       </c>
       <c r="E40" t="n">
-        <v>2.243813953156612</v>
+        <v>2.030428902939241</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.786435567686566</v>
+        <v>-2.785019737486956</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9272351032593792</v>
+        <v>0.9447822684236392</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.222708476831679</v>
       </c>
       <c r="E41" t="n">
-        <v>2.04006032594248</v>
+        <v>1.820509842826975</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.69065807817454</v>
+        <v>-2.693983193568288</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7878683022211737</v>
+        <v>0.7882885653265609</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.123415649313214</v>
       </c>
       <c r="E42" t="n">
-        <v>1.781058627570695</v>
+        <v>1.556476005324391</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.566748144907507</v>
+        <v>-2.557418146565998</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7082701552569979</v>
+        <v>0.7152902805379989</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.027453705070374</v>
       </c>
       <c r="E43" t="n">
-        <v>1.515200501906523</v>
+        <v>1.281006918905558</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.445600615198357</v>
+        <v>-2.439295094598427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6446058038577489</v>
+        <v>0.6474705186585162</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.934841800972107</v>
       </c>
       <c r="E44" t="n">
-        <v>1.255669933109981</v>
+        <v>1.018384976554781</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.372258407231791</v>
+        <v>-2.371069235785649</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5930346413674532</v>
+        <v>0.6157933838423398</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8457107352022788</v>
       </c>
       <c r="E45" t="n">
-        <v>1.051667610874684</v>
+        <v>0.8225675537502473</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.328302349250348</v>
+        <v>-2.337093246042813</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5033438837974974</v>
+        <v>0.5127313338369347</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7570663454576657</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8490819058485574</v>
+        <v>0.6332240715916236</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.260139451202422</v>
+        <v>-2.273216402062188</v>
       </c>
       <c r="G46" t="n">
-        <v>0.417654282833888</v>
+        <v>0.4240243382177918</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6696388971886839</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6716962469544551</v>
+        <v>0.4606596332660653</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.199053343123864</v>
+        <v>-2.207324813606299</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3877369013953258</v>
+        <v>0.3934568868821325</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.584535145842795</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5175336661760231</v>
+        <v>0.3083591171081321</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.150457863782387</v>
+        <v>-2.15792815853208</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3279682473212961</v>
+        <v>0.3351127201128799</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5052929559692466</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4157654598883271</v>
+        <v>0.2206358834398022</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.119272609941617</v>
+        <v>-2.14206283279893</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2885532345048056</v>
+        <v>0.3005567043238446</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4339217639669859</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3151100851193908</v>
+        <v>0.1209878809084982</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.051637795308887</v>
+        <v>-2.073737810781509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2591710195674856</v>
+        <v>0.2736504214643307</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3711507117892811</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2321923318283918</v>
+        <v>0.05632245334810208</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.994676404337697</v>
+        <v>-2.032539434300585</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2117285092323616</v>
+        <v>0.2209774455891244</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3177237943764017</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1330794957983301</v>
+        <v>-0.01969637413423593</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.962183927616687</v>
+        <v>-2.010087625554352</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1657797430433519</v>
+        <v>0.1801096131236734</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2743774336726396</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09736814997426012</v>
+        <v>-0.03874515354021685</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.944122058199762</v>
+        <v>-1.987052642723677</v>
       </c>
       <c r="G53" t="n">
-        <v>0.109522725628944</v>
+        <v>0.1302289471696546</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2427497486733299</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08687731253079103</v>
+        <v>-0.0141432346742871</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.925915379023676</v>
+        <v>-1.979984509859476</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07476680941150354</v>
+        <v>0.09117281071282061</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2216792145754708</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04066883318676675</v>
+        <v>-0.03772361513049271</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.909296098131423</v>
+        <v>-1.966345634173406</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05020896308097021</v>
+        <v>0.06912237684251928</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2099055430590104</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.02005839853213509</v>
+        <v>-0.07828923592465403</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.96005821479337</v>
+        <v>-2.034422748179221</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.005194935969692695</v>
+        <v>0.01295193047978293</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2055644215739847</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.01881649744542885</v>
+        <v>-0.0571580292211923</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.988185936491014</v>
+        <v>-2.077853870783711</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01154138106677707</v>
+        <v>0.008826426362853832</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2061016616295638</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1153133136958888</v>
+        <v>-0.1562346628114641</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.966732842877246</v>
+        <v>-2.051913248655115</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02605068932692681</v>
+        <v>0.001677231513906108</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2095164795321863</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1758249047951725</v>
+        <v>-0.1998822130451322</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.009252608410502</v>
+        <v>-2.104846724694896</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08024259365418819</v>
+        <v>-0.04918090031444042</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2137696302124949</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2488058753734002</v>
+        <v>-0.2584341503383965</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.032422169876048</v>
+        <v>-2.146499992701876</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08732253166179868</v>
+        <v>-0.05222977535239984</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2177414245627248</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2937992119557803</v>
+        <v>-0.2981828552086027</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.092775572053641</v>
+        <v>-2.218059624013569</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1098420232302476</v>
+        <v>-0.0649494238716307</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2203313230854472</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3919093978055735</v>
+        <v>-0.4056002161226469</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.132161465516388</v>
+        <v>-2.269234920694858</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1198323225931431</v>
+        <v>-0.0761469959005638</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2203470934161243</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4663620762622173</v>
+        <v>-0.4631825576371899</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.18210666625438</v>
+        <v>-2.325072462013439</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1554759855949972</v>
+        <v>-0.1066798188155545</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2169224359448924</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5469565773301764</v>
+        <v>-0.5496638902188136</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.245547506938404</v>
+        <v>-2.377753307984252</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2221388434203239</v>
+        <v>-0.1753448289631757</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2091228862292195</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6413851324552473</v>
+        <v>-0.6388698498994088</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.254475343394422</v>
+        <v>-2.368413078518454</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.22791864163374</v>
+        <v>-0.1791366410263891</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.196589073549164</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7365219961849034</v>
+        <v>-0.7410110987188531</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.253901613424707</v>
+        <v>-2.365449200513044</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.282500902703084</v>
+        <v>-0.232980687127843</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.179259941269906</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7735948685488986</v>
+        <v>-0.7634298530635387</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.247832195692972</v>
+        <v>-2.352491875106497</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3242785182206468</v>
+        <v>-0.2739051842816609</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1588788090190266</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.8268423614033795</v>
+        <v>-0.825520185341487</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.279528218738604</v>
+        <v>-2.386476521954501</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3449800177039934</v>
+        <v>-0.2959398779607492</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1376895405041704</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8269903192007818</v>
+        <v>-0.8268643976710778</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.336059902489679</v>
+        <v>-2.440285152625725</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3678819959189185</v>
+        <v>-0.3145668202422216</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1175582405052304</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8411643613880945</v>
+        <v>-0.8378093396310421</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.334692866882829</v>
+        <v>-2.432417418047903</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4329503723743676</v>
+        <v>-0.3887896919071555</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09973181259346282</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7558241926694138</v>
+        <v>-0.7392371791691471</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.301034829002496</v>
+        <v>-2.378175932118321</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4534582675057943</v>
+        <v>-0.4161083677764503</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.0851537480340642</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.729374375355077</v>
+        <v>-0.696688294282147</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.306409317292177</v>
+        <v>-2.379428064329316</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4659622754054069</v>
+        <v>-0.424220862327634</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.07475891306950774</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5718953362880645</v>
+        <v>-0.5394138777009035</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.318254598189525</v>
+        <v>-2.400785142776684</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4743879997617295</v>
+        <v>-0.4314849605724367</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.06898006331223519</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.398214918405504</v>
+        <v>-0.3430738805480983</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.354874153046586</v>
+        <v>-2.457054752344062</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5008803155923414</v>
+        <v>-0.4623388833881727</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.06777619279313415</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.257573161879045</v>
+        <v>-0.1921868335610931</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.316597156054796</v>
+        <v>-2.421572426302142</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4970239687451547</v>
+        <v>-0.4522840492413039</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.07015188392948483</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.09503365133705075</v>
+        <v>-0.002863813651046376</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.298181919345138</v>
+        <v>-2.401860984846093</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5131434985663951</v>
+        <v>-0.4801347435735983</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.07521708589212557</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1505101835476139</v>
+        <v>0.2643243581706241</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.264143755847011</v>
+        <v>-2.365767152375547</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4757400821869268</v>
+        <v>-0.4367044079786698</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.08233563906800322</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3536168889028908</v>
+        <v>0.4789875119144906</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.300131342026869</v>
+        <v>-2.396584872751494</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.461455858661123</v>
+        <v>-0.4307829480443366</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.09104528473711128</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6295581810581143</v>
+        <v>0.7816887031509472</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.229535797426973</v>
+        <v>-2.314199137923494</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4697619575642268</v>
+        <v>-0.4495547000849686</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.101569741073276</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8493054165637821</v>
+        <v>1.025357881262143</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.119420567739019</v>
+        <v>-2.191441386653254</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.420943754517086</v>
+        <v>-0.3960411979989878</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.114624466492265</v>
       </c>
       <c r="E81" t="n">
-        <v>1.076892841312649</v>
+        <v>1.259918210718371</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.097943076828871</v>
+        <v>-2.167068487569473</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3675923764005992</v>
+        <v>-0.3461353477390282</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1306576776373799</v>
       </c>
       <c r="E82" t="n">
-        <v>1.337348933352516</v>
+        <v>1.528880302089747</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.963767390852715</v>
+        <v>-2.030344464635931</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3075482689803418</v>
+        <v>-0.279574801156586</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1502989448926894</v>
       </c>
       <c r="E83" t="n">
-        <v>1.606795822613253</v>
+        <v>1.811956622921827</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.928077294286783</v>
+        <v>-1.986545021557058</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3008649837912991</v>
+        <v>-0.2874653590116663</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1730606777365205</v>
       </c>
       <c r="E84" t="n">
-        <v>1.869836454050296</v>
+        <v>2.109095230583607</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.81267414736082</v>
+        <v>-1.850312092589362</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2505750728657421</v>
+        <v>-0.2240308144041273</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1960373138165967</v>
       </c>
       <c r="E85" t="n">
-        <v>2.099342608108028</v>
+        <v>2.344494512231489</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.684621395766524</v>
+        <v>-1.70966718802466</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2003796030874632</v>
+        <v>-0.1849746779472934</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2152580885077867</v>
       </c>
       <c r="E86" t="n">
-        <v>2.280317030598696</v>
+        <v>2.533679018458861</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.512744803796974</v>
+        <v>-1.512533098225159</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1776916914730351</v>
+        <v>-0.1667711468094509</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2270012623154645</v>
       </c>
       <c r="E87" t="n">
-        <v>2.513394634042659</v>
+        <v>2.779007212723907</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.378524258275861</v>
+        <v>-1.357905394796382</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1604136835785174</v>
+        <v>-0.1610653274947359</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2294695455807986</v>
       </c>
       <c r="E88" t="n">
-        <v>2.621487249159741</v>
+        <v>2.879758602659243</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.166006492594327</v>
+        <v>-1.11554658760367</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1417300766086783</v>
+        <v>-0.1499291422115335</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2233113298723339</v>
       </c>
       <c r="E89" t="n">
-        <v>2.716068484139578</v>
+        <v>2.996837292939831</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9582737450415476</v>
+        <v>-0.8956183398990524</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.145100051547383</v>
+        <v>-0.1651861095543011</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2088613541692928</v>
       </c>
       <c r="E90" t="n">
-        <v>2.800316283588076</v>
+        <v>3.070890170539665</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7633920766046275</v>
+        <v>-0.6997167070715294</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1042227749672042</v>
+        <v>-0.131007858354378</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1868091153200628</v>
       </c>
       <c r="E91" t="n">
-        <v>2.838193479723056</v>
+        <v>3.114355134555262</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6051165838622369</v>
+        <v>-0.5580896145751362</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1735960937194107</v>
+        <v>-0.2100267662819151</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1553547002905641</v>
       </c>
       <c r="E92" t="n">
-        <v>2.860133732254866</v>
+        <v>3.123185381825758</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3989798916984562</v>
+        <v>-0.339601594366509</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1270869767232179</v>
+        <v>-0.1669316967598236</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1128321395297961</v>
       </c>
       <c r="E93" t="n">
-        <v>2.811239976289903</v>
+        <v>3.071966799618634</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2747992271425597</v>
+        <v>-0.2195196756024795</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1298588243958285</v>
+        <v>-0.1737566436697834</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06095567087348847</v>
       </c>
       <c r="E94" t="n">
-        <v>2.756544385843826</v>
+        <v>3.008632992234858</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1231015603080846</v>
+        <v>-0.07745343177124336</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1571428718444546</v>
+        <v>-0.1972520270934387</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0006501387943304917</v>
       </c>
       <c r="E95" t="n">
-        <v>2.627106497422785</v>
+        <v>2.867246724664024</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04312587703511712</v>
+        <v>0.08746756970127879</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1397043139995643</v>
+        <v>-0.169289577403532</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0685649900483461</v>
       </c>
       <c r="E96" t="n">
-        <v>2.477220526596927</v>
+        <v>2.696125661872699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1034533078972086</v>
+        <v>0.1279954140365289</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1704386113620815</v>
+        <v>-0.2016577066139593</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1398052411414601</v>
       </c>
       <c r="E97" t="n">
-        <v>2.266549085344679</v>
+        <v>2.473866291849435</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1223777397926067</v>
+        <v>0.1435136685534324</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2038361490778395</v>
+        <v>-0.2406855107266099</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2102971537825805</v>
       </c>
       <c r="E98" t="n">
-        <v>2.100984310051545</v>
+        <v>2.297664295334551</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1636973157458711</v>
+        <v>0.1782459744840534</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2081568315658099</v>
+        <v>-0.2514344873059723</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2759658370245101</v>
       </c>
       <c r="E99" t="n">
-        <v>1.950528544303776</v>
+        <v>2.146317634764126</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1862876381747786</v>
+        <v>0.2002066892644405</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2553333326694341</v>
+        <v>-0.2945153906559721</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3314977684113021</v>
       </c>
       <c r="E100" t="n">
-        <v>1.739320362531164</v>
+        <v>1.923195702262389</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2032130657861249</v>
+        <v>0.2110910314882348</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2760584424396003</v>
+        <v>-0.323771684063588</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3723482659711414</v>
       </c>
       <c r="E101" t="n">
-        <v>1.606311024723892</v>
+        <v>1.787348407979412</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2160932642557284</v>
+        <v>0.2246622243520894</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3188418561756742</v>
+        <v>-0.3711921581310138</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3964190068890211</v>
       </c>
       <c r="E102" t="n">
-        <v>1.372023000575649</v>
+        <v>1.520432541465727</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2186715075764189</v>
+        <v>0.2296770492725533</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3201057935300787</v>
+        <v>-0.3728511742848648</v>
       </c>
     </row>
   </sheetData>
